--- a/xdata/class.xlsx
+++ b/xdata/class.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="3915" yWindow="285" windowWidth="13440" windowHeight="4545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
     <sheet name="detailClass" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>생활편의지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,139 +619,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -771,7 +759,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -784,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -795,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -817,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -828,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -850,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -861,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -872,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -883,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -894,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -905,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -916,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -927,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -938,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -949,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -960,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -971,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -982,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -993,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1004,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1015,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1026,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1037,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1048,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1059,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1070,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1081,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1092,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1103,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1114,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1125,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1136,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1147,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1158,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1169,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1180,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1191,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1202,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1213,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1224,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1235,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1246,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1257,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1268,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1279,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1290,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1312,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1323,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1334,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1345,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1353,18 +1341,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/xdata/class.xlsx
+++ b/xdata/class.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3915" yWindow="285" windowWidth="13440" windowHeight="4545" activeTab="1"/>
@@ -11,12 +11,11 @@
     <sheet name="detailClass" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>생활편의지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,14 +274,34 @@
   </si>
   <si>
     <t>창업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCLASS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCLASS_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +350,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,6 +433,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -443,6 +468,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,132 +644,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -755,584 +789,595 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>11</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>22</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>26</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>33</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>35</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>37</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
-      </c>
-      <c r="B41">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>42</v>
       </c>
       <c r="B42">
         <v>11</v>
       </c>
       <c r="C42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
-      </c>
-      <c r="B43">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>44</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
       <c r="C44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>45</v>
-      </c>
-      <c r="B45">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>46</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
-      </c>
-      <c r="B48">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>49</v>
       </c>
       <c r="B49">
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>14</v>
       </c>
       <c r="C52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
         <v>64</v>
       </c>
     </row>

--- a/xdata/class.xlsx
+++ b/xdata/class.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="285" windowWidth="13440" windowHeight="4545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="5805" windowHeight="2700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
     <sheet name="detailClass" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L12"/>
+  <oleSize ref="A28:E33"/>
 </workbook>
 </file>
 
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/xdata/class.xlsx
+++ b/xdata/class.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="12960" windowHeight="3720"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="12960" windowHeight="3720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
     <sheet name="detailClass" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A10:K18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>생활편의지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,14 +274,34 @@
   </si>
   <si>
     <t>창업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCLASS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCLASS_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +350,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,6 +433,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -443,6 +468,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,132 +644,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -755,584 +789,595 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>11</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>22</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>26</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>33</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>35</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>37</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
-      </c>
-      <c r="B41">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>42</v>
       </c>
       <c r="B42">
         <v>11</v>
       </c>
       <c r="C42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
-      </c>
-      <c r="B43">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>44</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
       <c r="C44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>45</v>
-      </c>
-      <c r="B45">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>46</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
-      </c>
-      <c r="B48">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>49</v>
       </c>
       <c r="B49">
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>14</v>
       </c>
       <c r="C52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
         <v>64</v>
       </c>
     </row>
